--- a/Planilha para C+ílculo de Dieta.xlsx
+++ b/Planilha para C+ílculo de Dieta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual_Studio\Diet_Analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F0984-3FD9-4481-97A5-349AD4B9D054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221EAA1-EAB6-4623-A842-1F436A066997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLAC_PJ_CLT" sheetId="37" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="583">
   <si>
     <t>COD</t>
   </si>
@@ -1827,6 +1827,9 @@
   </si>
   <si>
     <t>Plano</t>
+  </si>
+  <si>
+    <t>Calculo da dieta</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2105,6 +2108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2768,7 +2777,7 @@
     <xf numFmtId="0" fontId="16" fillId="26" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2906,7 +2915,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2929,12 +2937,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3244,6 +3246,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="26" borderId="51" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="26" borderId="51" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="27" borderId="51" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3268,9 +3343,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3280,67 +3352,7 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3350,18 +3362,35 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3466,19 +3495,9 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3500,33 +3519,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="26" borderId="51" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="28" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="26" borderId="51" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="28" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="28" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="28" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="27" borderId="51" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ênfase2" xfId="4" builtinId="33"/>
@@ -3580,7 +3611,7 @@
         <xdr:cNvPr id="6149" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,7 +3718,7 @@
         <xdr:cNvPr id="6150" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3794,7 +3825,7 @@
         <xdr:cNvPr id="6151" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3901,7 +3932,7 @@
         <xdr:cNvPr id="6152" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4008,7 +4039,7 @@
         <xdr:cNvPr id="6153" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4146,7 @@
         <xdr:cNvPr id="6154" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,7 +4207,7 @@
         <xdr:cNvPr id="6155" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4283,7 +4314,7 @@
         <xdr:cNvPr id="6157" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4390,7 +4421,7 @@
         <xdr:cNvPr id="6158" name="Text Box 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4497,7 +4528,7 @@
         <xdr:cNvPr id="6159" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4635,7 @@
         <xdr:cNvPr id="6160" name="Text Box 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4711,7 +4742,7 @@
         <xdr:cNvPr id="6161" name="Text Box 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4818,7 +4849,7 @@
         <xdr:cNvPr id="6162" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4925,7 +4956,7 @@
         <xdr:cNvPr id="6163" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5032,7 +5063,7 @@
         <xdr:cNvPr id="6164" name="Text Box 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5144,7 +5175,7 @@
                   <a14:compatExt spid="_x0000_s6170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5231,7 +5262,7 @@
                   <a14:compatExt spid="_x0000_s6171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5318,7 +5349,7 @@
                   <a14:compatExt spid="_x0000_s6183"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5376,7 +5407,7 @@
         <xdr:cNvPr id="19459" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000034C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-0000034C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5483,7 +5514,7 @@
         <xdr:cNvPr id="19460" name="Text Box 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-0000044C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-0000044C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5987,110 +6018,110 @@
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="355" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="244" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="252" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="358"/>
-      <c r="E1" s="357" t="s">
+      <c r="B1" s="253"/>
+      <c r="C1" s="254"/>
+      <c r="E1" s="253" t="s">
         <v>580</v>
       </c>
-      <c r="F1" s="358"/>
+      <c r="F1" s="254"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="359"/>
-      <c r="B2" s="359" t="s">
+      <c r="A2" s="245"/>
+      <c r="B2" s="245" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="363">
+      <c r="C2" s="249">
         <v>6200</v>
       </c>
-      <c r="E2" s="359" t="s">
+      <c r="E2" s="245" t="s">
         <v>574</v>
       </c>
-      <c r="F2" s="364">
+      <c r="F2" s="250">
         <f>(C9*25%)+C9</f>
         <v>9336.1111111111113</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="359"/>
-      <c r="B3" s="359" t="s">
+      <c r="A3" s="245"/>
+      <c r="B3" s="245" t="s">
         <v>575</v>
       </c>
-      <c r="C3" s="363">
+      <c r="C3" s="249">
         <v>580</v>
       </c>
-      <c r="E3" s="359" t="s">
+      <c r="E3" s="245" t="s">
         <v>579</v>
       </c>
-      <c r="F3" s="361">
+      <c r="F3" s="247">
         <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="359"/>
-      <c r="B4" s="359" t="s">
+      <c r="A4" s="245"/>
+      <c r="B4" s="245" t="s">
         <v>576</v>
       </c>
-      <c r="C4" s="364">
+      <c r="C4" s="250">
         <f>C2/12</f>
         <v>516.66666666666663</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="245" t="s">
         <v>581</v>
       </c>
-      <c r="F4" s="364">
+      <c r="F4" s="250">
         <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="359"/>
-      <c r="B5" s="359" t="s">
+      <c r="A5" s="245"/>
+      <c r="B5" s="245" t="s">
         <v>577</v>
       </c>
-      <c r="C5" s="364">
+      <c r="C5" s="250">
         <f>(C2/3)/12</f>
         <v>172.2222222222222</v>
       </c>
-      <c r="H5" s="362"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="359">
-        <v>0</v>
-      </c>
-      <c r="B6" s="359" t="s">
+      <c r="A6" s="245">
+        <v>0</v>
+      </c>
+      <c r="B6" s="245" t="s">
         <v>578</v>
       </c>
-      <c r="C6" s="364">
+      <c r="C6" s="250">
         <f>(C2*A6)/12</f>
         <v>0</v>
       </c>
-      <c r="F6" s="365">
+      <c r="F6" s="251">
         <f>F2-((F2*F3)+F4)</f>
         <v>6715.7777777777783</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="359"/>
-      <c r="B7" s="359"/>
-      <c r="C7" s="364"/>
-    </row>
-    <row r="8" spans="1:8" s="360" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="245"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="250"/>
+    </row>
+    <row r="8" spans="1:8" s="246" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="365">
+      <c r="C9" s="251">
         <f>SUM(C2:C6)</f>
         <v>7468.8888888888896</v>
       </c>
@@ -13753,343 +13784,327 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48" style="108" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="108" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="108"/>
+    <col min="1" max="1" width="48" style="105" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="105" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="281" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="270"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
+      <c r="A2" s="282"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="271" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="260"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="261"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="273"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="266"/>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="130"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="127"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="274" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="264"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="276"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="107" t="s">
         <v>392</v>
       </c>
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="277" t="s">
         <v>393</v>
       </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="277"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="254"/>
-      <c r="C9" s="254"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="255"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="256"/>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
+      <c r="B11" s="291"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="291"/>
+      <c r="E11" s="291"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
-      <c r="E12" s="258"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="292"/>
+      <c r="D12" s="292"/>
+      <c r="E12" s="293"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="252"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="252"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="252"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="252"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="288"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="247"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="248"/>
+      <c r="B15" s="283"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="283"/>
+      <c r="E15" s="284"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="109"/>
-      <c r="B16" s="249"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="250"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="285"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="286"/>
     </row>
     <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="251"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="251"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="287"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="287"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
+      <c r="B18" s="266"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="255"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="255"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
-      <c r="E20" s="272"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="272"/>
-      <c r="C21" s="272"/>
-      <c r="D21" s="272"/>
-      <c r="E21" s="272"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="268"/>
+      <c r="C21" s="268"/>
+      <c r="D21" s="268"/>
+      <c r="E21" s="268"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="272"/>
-      <c r="C22" s="272"/>
-      <c r="D22" s="272"/>
-      <c r="E22" s="272"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="268"/>
+      <c r="C22" s="268"/>
+      <c r="D22" s="268"/>
+      <c r="E22" s="268"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="272"/>
-      <c r="C23" s="272"/>
-      <c r="D23" s="272"/>
-      <c r="E23" s="272"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="268"/>
+      <c r="D23" s="268"/>
+      <c r="E23" s="268"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="272"/>
-      <c r="C24" s="272"/>
-      <c r="D24" s="272"/>
-      <c r="E24" s="272"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="268"/>
+      <c r="D24" s="268"/>
+      <c r="E24" s="268"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="119" t="s">
+      <c r="A25" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="B25" s="273"/>
-      <c r="C25" s="273"/>
-      <c r="D25" s="273"/>
-      <c r="E25" s="273"/>
+      <c r="B25" s="269"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="269"/>
+      <c r="E25" s="269"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="273"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="273"/>
+      <c r="B26" s="269"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="269"/>
+      <c r="E26" s="269"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
+      <c r="B27" s="269"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="269"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="B28" s="273"/>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="273"/>
+      <c r="B28" s="269"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="269"/>
+      <c r="E28" s="269"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="274"/>
-      <c r="C29" s="274"/>
-      <c r="D29" s="274"/>
-      <c r="E29" s="274"/>
+      <c r="B29" s="270"/>
+      <c r="C29" s="270"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="270"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="B30" s="279"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="279"/>
-      <c r="E30" s="279"/>
+      <c r="B30" s="259"/>
+      <c r="C30" s="259"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="259"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="280"/>
-      <c r="C31" s="280"/>
-      <c r="D31" s="280"/>
-      <c r="E31" s="281"/>
-    </row>
-    <row r="32" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:5" s="121" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="125" t="s">
+      <c r="B31" s="260"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="261"/>
+    </row>
+    <row r="32" spans="1:5" s="118" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:5" s="118" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:5" s="118" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="282"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="283"/>
+      <c r="B34" s="262"/>
+      <c r="C34" s="262"/>
+      <c r="D34" s="262"/>
+      <c r="E34" s="263"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="123" t="s">
         <v>245</v>
       </c>
-      <c r="B35" s="284"/>
-      <c r="C35" s="284"/>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="126"/>
-      <c r="B36" s="284"/>
-      <c r="C36" s="284"/>
-      <c r="D36" s="284"/>
-      <c r="E36" s="284"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
     </row>
     <row r="37" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="285"/>
-      <c r="C37" s="285"/>
-      <c r="D37" s="285"/>
-      <c r="E37" s="285"/>
+      <c r="B37" s="265"/>
+      <c r="C37" s="265"/>
+      <c r="D37" s="265"/>
+      <c r="E37" s="265"/>
     </row>
     <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="275"/>
-      <c r="C38" s="275"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="276"/>
+      <c r="B38" s="255"/>
+      <c r="C38" s="255"/>
+      <c r="D38" s="255"/>
+      <c r="E38" s="256"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="129"/>
-      <c r="B39" s="277"/>
-      <c r="C39" s="277"/>
-      <c r="D39" s="277"/>
-      <c r="E39" s="278"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="258"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B38:E39"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E24"/>
-    <mergeCell ref="B25:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A1:E2"/>
     <mergeCell ref="B15:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A13:E14"/>
@@ -14099,6 +14114,22 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E24"/>
+    <mergeCell ref="B25:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B38:E39"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E36"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14116,341 +14147,349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="108" customWidth="1"/>
-    <col min="2" max="2" width="18" style="171" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="172" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="108" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="172" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="171" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="108"/>
+    <col min="1" max="1" width="28" style="105" customWidth="1"/>
+    <col min="2" max="2" width="18" style="168" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="169" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="169" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="168" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="281" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="270"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
+      <c r="A2" s="282"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="295" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="306"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="299" t="s">
+      <c r="A4" s="294" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
+      <c r="B4" s="294"/>
+      <c r="C4" s="294"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="140" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="140" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="137" t="s">
         <v>362</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="137"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="132"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="129"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="133"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="134"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="131"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="154" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="135"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="165"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="162"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="163" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="310"/>
-      <c r="C12" s="310"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="169"/>
+      <c r="B12" s="312"/>
+      <c r="C12" s="312"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="166"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="146" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="133"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="130"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="167" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="311"/>
-      <c r="C14" s="311"/>
-      <c r="D14" s="311"/>
-      <c r="E14" s="311"/>
-      <c r="F14" s="312"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="316"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="292" t="s">
+      <c r="A15" s="313" t="s">
         <v>399</v>
       </c>
-      <c r="B15" s="292"/>
-      <c r="C15" s="292"/>
-      <c r="D15" s="292"/>
-      <c r="E15" s="292"/>
-      <c r="F15" s="292"/>
+      <c r="B15" s="313"/>
+      <c r="C15" s="313"/>
+      <c r="D15" s="313"/>
+      <c r="E15" s="313"/>
+      <c r="F15" s="313"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="294"/>
-      <c r="B16" s="294"/>
-      <c r="C16" s="294"/>
-      <c r="D16" s="294"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="294"/>
+      <c r="A16" s="314"/>
+      <c r="B16" s="314"/>
+      <c r="C16" s="314"/>
+      <c r="D16" s="314"/>
+      <c r="E16" s="314"/>
+      <c r="F16" s="314"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="298" t="s">
+      <c r="A17" s="301" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="300"/>
+      <c r="B17" s="294"/>
+      <c r="C17" s="294"/>
+      <c r="D17" s="294"/>
+      <c r="E17" s="294"/>
+      <c r="F17" s="302"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="286" t="s">
+      <c r="A18" s="303" t="s">
         <v>395</v>
       </c>
-      <c r="B18" s="287"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="288"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="305"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="301" t="s">
+      <c r="A19" s="306" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="302"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="303"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="307"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="308"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="307" t="s">
+      <c r="A20" s="309" t="s">
         <v>397</v>
       </c>
-      <c r="B20" s="308"/>
-      <c r="C20" s="308"/>
-      <c r="D20" s="308"/>
-      <c r="E20" s="308"/>
-      <c r="F20" s="309"/>
+      <c r="B20" s="310"/>
+      <c r="C20" s="310"/>
+      <c r="D20" s="310"/>
+      <c r="E20" s="310"/>
+      <c r="F20" s="311"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="295" t="s">
+      <c r="A21" s="318" t="s">
         <v>398</v>
       </c>
-      <c r="B21" s="296"/>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="297"/>
+      <c r="B21" s="319"/>
+      <c r="C21" s="319"/>
+      <c r="D21" s="319"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="320"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="292" t="s">
+      <c r="A22" s="313" t="s">
         <v>399</v>
       </c>
-      <c r="B22" s="292"/>
-      <c r="C22" s="292"/>
-      <c r="D22" s="292"/>
-      <c r="E22" s="292"/>
-      <c r="F22" s="292"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="313"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="294"/>
-      <c r="B23" s="294"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="294"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="294"/>
+      <c r="A23" s="314"/>
+      <c r="B23" s="314"/>
+      <c r="C23" s="314"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="314"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="298" t="s">
+      <c r="A24" s="301" t="s">
         <v>401</v>
       </c>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="300"/>
+      <c r="B24" s="294"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="302"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="286" t="s">
+      <c r="A25" s="303" t="s">
         <v>395</v>
       </c>
-      <c r="B25" s="287"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="288"/>
+      <c r="B25" s="304"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="304"/>
+      <c r="F25" s="305"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="301" t="s">
+      <c r="A26" s="306" t="s">
         <v>396</v>
       </c>
-      <c r="B26" s="302"/>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="303"/>
+      <c r="B26" s="307"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="308"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="289" t="s">
+      <c r="A27" s="298" t="s">
         <v>398</v>
       </c>
-      <c r="B27" s="290"/>
-      <c r="C27" s="290"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="291"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="299"/>
+      <c r="F27" s="300"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="292" t="s">
+      <c r="A28" s="313" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="292"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="292"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="292"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="313"/>
+      <c r="F28" s="313"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="293"/>
-      <c r="B29" s="293"/>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="293"/>
+      <c r="A29" s="317"/>
+      <c r="B29" s="317"/>
+      <c r="C29" s="317"/>
+      <c r="D29" s="317"/>
+      <c r="E29" s="317"/>
+      <c r="F29" s="317"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="294"/>
-      <c r="B30" s="294"/>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="294"/>
+      <c r="A30" s="314"/>
+      <c r="B30" s="314"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="314"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="314"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="298" t="s">
+      <c r="A31" s="301" t="s">
         <v>403</v>
       </c>
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="300"/>
+      <c r="B31" s="294"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
+      <c r="F31" s="302"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="286" t="s">
+      <c r="A32" s="303" t="s">
         <v>395</v>
       </c>
-      <c r="B32" s="287"/>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="288"/>
+      <c r="B32" s="304"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="304"/>
+      <c r="F32" s="305"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="289" t="s">
+      <c r="A33" s="298" t="s">
         <v>398</v>
       </c>
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="291"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="299"/>
+      <c r="E33" s="299"/>
+      <c r="F33" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A28:F30"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A22:F23"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:F2"/>
@@ -14463,14 +14502,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A15:F16"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A28:F30"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A22:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14494,316 +14525,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="314" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-    </row>
-    <row r="2" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="313" t="s">
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+    </row>
+    <row r="2" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="321" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-    </row>
-    <row r="3" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="217" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="215" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="216" t="s">
         <v>406</v>
       </c>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="216" t="s">
         <v>407</v>
       </c>
-      <c r="E3" s="219" t="s">
+      <c r="E3" s="216" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-    </row>
-    <row r="5" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-    </row>
-    <row r="6" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-    </row>
-    <row r="7" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="182"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-    </row>
-    <row r="8" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-    </row>
-    <row r="9" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-    </row>
-    <row r="10" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="191"/>
-      <c r="B10" s="192"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-    </row>
-    <row r="11" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-    </row>
-    <row r="12" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-    </row>
-    <row r="13" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-    </row>
-    <row r="14" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-    </row>
-    <row r="15" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="194"/>
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-    </row>
-    <row r="16" spans="1:9" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
-      <c r="B16" s="186"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-    </row>
-    <row r="17" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="197"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-    </row>
-    <row r="18" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="200"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-    </row>
-    <row r="19" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="203"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-    </row>
-    <row r="20" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-    </row>
-    <row r="21" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="206"/>
-      <c r="B21" s="207"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="208"/>
-    </row>
-    <row r="22" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="194"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="196"/>
-    </row>
-    <row r="23" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="209"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-    </row>
-    <row r="24" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-    </row>
-    <row r="25" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="173"/>
-      <c r="B25" s="174"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-    </row>
-    <row r="26" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-    </row>
-    <row r="27" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="188"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-    </row>
-    <row r="28" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="191"/>
-      <c r="B28" s="192"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-    </row>
-    <row r="29" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="176"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-    </row>
-    <row r="30" spans="1:5" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
+    <row r="4" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="173"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+    </row>
+    <row r="6" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="176"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="179"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+    </row>
+    <row r="8" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+    </row>
+    <row r="9" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+    </row>
+    <row r="10" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+    </row>
+    <row r="11" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="173"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+    </row>
+    <row r="12" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="182"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+    </row>
+    <row r="13" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="176"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+    </row>
+    <row r="14" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="179"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+    </row>
+    <row r="15" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="191"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+    </row>
+    <row r="16" spans="1:9" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+    </row>
+    <row r="17" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+    </row>
+    <row r="18" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="197"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+    </row>
+    <row r="19" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="200"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+    </row>
+    <row r="20" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="179"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+    </row>
+    <row r="21" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="203"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+    </row>
+    <row r="22" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="191"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+    </row>
+    <row r="23" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="206"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+    </row>
+    <row r="24" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="209"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+    </row>
+    <row r="25" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="170"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+    </row>
+    <row r="26" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="173"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+    </row>
+    <row r="27" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+    </row>
+    <row r="28" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="188"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+    </row>
+    <row r="29" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="173"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+    </row>
+    <row r="30" spans="1:5" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="182"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="179"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
+      <c r="A31" s="176"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="182"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="194"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
+      <c r="A33" s="191"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="185"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="187"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="197"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
+      <c r="A35" s="194"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="200"/>
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
+      <c r="A36" s="197"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="203"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
+      <c r="A37" s="200"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="182"/>
-      <c r="B38" s="183"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="206"/>
-      <c r="B39" s="207"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
+      <c r="A39" s="203"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="194"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="196"/>
+      <c r="A40" s="191"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="209"/>
-      <c r="B41" s="210"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="211"/>
-      <c r="E41" s="211"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="208"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="215"/>
-      <c r="B42" s="216"/>
-      <c r="C42" s="217"/>
-      <c r="D42" s="217"/>
-      <c r="E42" s="217"/>
+      <c r="A42" s="212"/>
+      <c r="B42" s="213"/>
+      <c r="C42" s="214"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14822,8 +14853,8 @@
   </sheetPr>
   <dimension ref="B1:AH138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36:AH36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15049,16 +15080,16 @@
         <v>21</v>
       </c>
       <c r="L5" s="51"/>
-      <c r="M5" s="86">
+      <c r="M5" s="83">
         <v>2500</v>
       </c>
       <c r="N5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
       <c r="Q5" s="51"/>
-      <c r="R5" s="58"/>
+      <c r="R5" s="57"/>
       <c r="T5" s="43">
         <v>80</v>
       </c>
@@ -15124,7 +15155,7 @@
       <c r="K6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="84">
         <v>17</v>
       </c>
       <c r="M6" s="16">
@@ -15211,18 +15242,18 @@
       <c r="B7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="316" t="s">
+      <c r="C7" s="324" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="317"/>
+      <c r="D7" s="324"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="325"/>
       <c r="K7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="87">
+      <c r="L7" s="84">
         <v>50</v>
       </c>
       <c r="M7" s="16">
@@ -15309,37 +15340,37 @@
       <c r="B8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="80">
         <v>1.72</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="H8" s="77">
+      <c r="H8" s="74">
         <v>67</v>
       </c>
       <c r="K8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="85">
         <v>23</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="59">
         <f>M5*L8/100</f>
         <v>575</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="59">
         <f>M8/9</f>
         <v>63.888888888888886</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8" s="60">
         <f>O8/C9</f>
         <v>1.0304659498207884</v>
       </c>
@@ -15407,13 +15438,13 @@
       <c r="B9" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="81">
         <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="72">
         <f>C9/(C8*C8)</f>
         <v>20.957274202271499</v>
       </c>
@@ -15488,22 +15519,22 @@
       <c r="E10" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="82"/>
       <c r="H10" s="32"/>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="62">
         <v>0.05</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="63">
         <f>($M6*$L10)+$M6</f>
         <v>446.25</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="63">
         <f>M6-($M6*$L10)</f>
         <v>403.75</v>
       </c>
@@ -15511,7 +15542,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="51"/>
-      <c r="R10" s="58"/>
+      <c r="R10" s="57"/>
       <c r="T10" s="43">
         <v>62</v>
       </c>
@@ -15575,7 +15606,7 @@
       <c r="B11" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="76" t="e">
+      <c r="C11" s="73" t="e">
         <f>(C9*B4)+C4</f>
         <v>#REF!</v>
       </c>
@@ -15678,21 +15709,21 @@
       <c r="K12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="64">
         <v>0.05</v>
       </c>
-      <c r="M12" s="66">
+      <c r="M12" s="65">
         <f>($M8*$L12)+$M8</f>
         <v>603.75</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="66">
+      <c r="O12" s="65">
         <f>M8-($M8*$L12)</f>
         <v>546.25</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="58" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="35"/>
@@ -15825,13 +15856,13 @@
       </c>
     </row>
     <row r="14" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="318"/>
-      <c r="C14" s="319"/>
-      <c r="D14" s="319"/>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="320"/>
+      <c r="B14" s="326"/>
+      <c r="C14" s="327"/>
+      <c r="D14" s="327"/>
+      <c r="E14" s="327"/>
+      <c r="F14" s="327"/>
+      <c r="G14" s="327"/>
+      <c r="H14" s="328"/>
       <c r="K14" s="42" t="s">
         <v>35</v>
       </c>
@@ -15844,10 +15875,10 @@
       <c r="N14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
       <c r="Q14" s="51"/>
-      <c r="R14" s="58"/>
+      <c r="R14" s="57"/>
       <c r="T14" s="43"/>
       <c r="U14" s="22" t="str">
         <f>IF($T14&gt;0,(UPPER(VLOOKUP($T14,Base!$A$2:$Z$1000,2,0))),"")</f>
@@ -15904,13 +15935,13 @@
       </c>
     </row>
     <row r="15" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="321"/>
-      <c r="C15" s="322"/>
-      <c r="D15" s="322"/>
-      <c r="E15" s="322"/>
-      <c r="F15" s="322"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="323"/>
+      <c r="B15" s="329"/>
+      <c r="C15" s="330"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="331"/>
       <c r="K15" s="31" t="s">
         <v>200</v>
       </c>
@@ -15982,13 +16013,13 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="321"/>
-      <c r="C16" s="322"/>
-      <c r="D16" s="322"/>
-      <c r="E16" s="322"/>
-      <c r="F16" s="322"/>
-      <c r="G16" s="322"/>
-      <c r="H16" s="323"/>
+      <c r="B16" s="329"/>
+      <c r="C16" s="330"/>
+      <c r="D16" s="330"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="331"/>
       <c r="K16" s="31" t="s">
         <v>201</v>
       </c>
@@ -16060,13 +16091,13 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="321"/>
-      <c r="C17" s="322"/>
-      <c r="D17" s="322"/>
-      <c r="E17" s="322"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="323"/>
+      <c r="B17" s="329"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="330"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="331"/>
       <c r="K17" s="31" t="s">
         <v>202</v>
       </c>
@@ -16138,13 +16169,13 @@
       </c>
     </row>
     <row r="18" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="321"/>
-      <c r="C18" s="322"/>
-      <c r="D18" s="322"/>
-      <c r="E18" s="322"/>
-      <c r="F18" s="322"/>
-      <c r="G18" s="322"/>
-      <c r="H18" s="323"/>
+      <c r="B18" s="329"/>
+      <c r="C18" s="330"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="331"/>
       <c r="K18" s="31" t="s">
         <v>203</v>
       </c>
@@ -16220,13 +16251,13 @@
       </c>
     </row>
     <row r="19" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="321"/>
-      <c r="C19" s="322"/>
-      <c r="D19" s="322"/>
-      <c r="E19" s="322"/>
-      <c r="F19" s="322"/>
-      <c r="G19" s="322"/>
-      <c r="H19" s="323"/>
+      <c r="B19" s="329"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="331"/>
       <c r="K19" s="31" t="s">
         <v>204</v>
       </c>
@@ -16260,13 +16291,13 @@
       <c r="AH19" s="44"/>
     </row>
     <row r="20" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="321"/>
-      <c r="C20" s="322"/>
-      <c r="D20" s="322"/>
-      <c r="E20" s="322"/>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="323"/>
+      <c r="B20" s="329"/>
+      <c r="C20" s="330"/>
+      <c r="D20" s="330"/>
+      <c r="E20" s="330"/>
+      <c r="F20" s="330"/>
+      <c r="G20" s="330"/>
+      <c r="H20" s="331"/>
       <c r="K20" s="31" t="s">
         <v>205</v>
       </c>
@@ -16337,13 +16368,13 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="321"/>
-      <c r="C21" s="322"/>
-      <c r="D21" s="322"/>
-      <c r="E21" s="322"/>
-      <c r="F21" s="322"/>
-      <c r="G21" s="322"/>
-      <c r="H21" s="323"/>
+      <c r="B21" s="329"/>
+      <c r="C21" s="330"/>
+      <c r="D21" s="330"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="331"/>
       <c r="K21" s="31" t="s">
         <v>206</v>
       </c>
@@ -16410,13 +16441,13 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="324"/>
-      <c r="C22" s="325"/>
-      <c r="D22" s="325"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="325"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="326"/>
+      <c r="B22" s="332"/>
+      <c r="C22" s="333"/>
+      <c r="D22" s="333"/>
+      <c r="E22" s="333"/>
+      <c r="F22" s="333"/>
+      <c r="G22" s="333"/>
+      <c r="H22" s="334"/>
       <c r="K22" s="31" t="s">
         <v>207</v>
       </c>
@@ -16488,14 +16519,14 @@
       <c r="K23" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="66">
         <v>30</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="67">
         <f>AH36</f>
         <v>18.2</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="67">
         <f t="shared" si="0"/>
         <v>0.60666666666666669</v>
       </c>
@@ -16619,32 +16650,32 @@
       </c>
     </row>
     <row r="25" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="327" t="s">
+      <c r="C25" s="335" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="327"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-      <c r="K25" s="55" t="s">
+      <c r="D25" s="335"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="K25" s="363" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="56">
+      <c r="L25" s="364"/>
+      <c r="M25" s="365">
         <f>SUM(M26:M28)</f>
         <v>1332.3389999999999</v>
       </c>
-      <c r="N25" s="57" t="s">
+      <c r="N25" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="58"/>
+      <c r="O25" s="366"/>
+      <c r="P25" s="366"/>
+      <c r="Q25" s="364"/>
+      <c r="R25" s="367"/>
       <c r="T25" s="43"/>
       <c r="V25" s="50"/>
       <c r="W25" s="12" t="str">
@@ -16700,40 +16731,40 @@
       <c r="B26" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="314" t="s">
+      <c r="C26" s="322" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="314"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="80"/>
-      <c r="K26" s="31" t="s">
+      <c r="D26" s="322"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="77"/>
+      <c r="K26" s="368" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="369">
         <f>M26*100/M25</f>
         <v>17.375757971507252</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="370">
         <f>O26*4</f>
         <v>231.50400000000002</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="371" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="370">
         <f>W36</f>
         <v>57.876000000000005</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="371" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="52">
+      <c r="Q26" s="372">
         <f>O26/C9</f>
         <v>0.93348387096774199</v>
       </c>
-      <c r="R26" s="32" t="s">
+      <c r="R26" s="373" t="s">
         <v>26</v>
       </c>
       <c r="T26" s="43"/>
@@ -16795,40 +16826,40 @@
       <c r="B27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="314" t="s">
+      <c r="C27" s="322" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="314"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="80"/>
-      <c r="K27" s="31" t="s">
+      <c r="D27" s="322"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="77"/>
+      <c r="K27" s="368" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="369">
         <f>M27*100/M25</f>
         <v>47.855388155717129</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="370">
         <f>O27*4</f>
         <v>637.596</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="371" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="370">
         <f>X36</f>
         <v>159.399</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="371" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="52">
+      <c r="Q27" s="372">
         <f>O27/C9</f>
         <v>2.5709516129032259</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R27" s="373" t="s">
         <v>26</v>
       </c>
       <c r="T27" s="43"/>
@@ -16890,42 +16921,42 @@
       <c r="B28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="315" t="s">
+      <c r="C28" s="323" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="315"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82"/>
+      <c r="D28" s="323"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="374" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="375">
         <f>M28*100/M25</f>
         <v>34.768853872775622</v>
       </c>
-      <c r="M28" s="66">
+      <c r="M28" s="376">
         <f>O28*9</f>
         <v>463.23899999999998</v>
       </c>
-      <c r="N28" s="35" t="s">
+      <c r="N28" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="66">
+      <c r="O28" s="376">
         <f>Y36</f>
         <v>51.470999999999997</v>
       </c>
-      <c r="P28" s="35" t="s">
+      <c r="P28" s="377" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="70">
+      <c r="Q28" s="378">
         <f>O28/C9</f>
         <v>0.83017741935483869</v>
       </c>
-      <c r="R28" s="36" t="s">
+      <c r="R28" s="379" t="s">
         <v>26</v>
       </c>
       <c r="T28" s="43"/>
@@ -17207,7 +17238,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="20:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T33" s="43"/>
       <c r="U33" s="22" t="str">
         <f>IF($T33&gt;0,(UPPER(VLOOKUP($T33,Base!$A$2:$Z$1000,2,0))),"")</f>
@@ -17263,7 +17294,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="20:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>582</v>
+      </c>
       <c r="T34" s="43"/>
       <c r="U34" s="22" t="str">
         <f>IF($T34&gt;0,(UPPER(VLOOKUP($T34,Base!$A$2:$Z$1000,2,0))),"")</f>
@@ -17319,7 +17353,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="20:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T35" s="43"/>
       <c r="U35" s="22" t="str">
         <f>IF($T35&gt;0,(UPPER(VLOOKUP($T35,Base!$A$2:$Z$1000,2,0))),"")</f>
@@ -17375,7 +17409,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="20:34" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T36" s="45"/>
       <c r="U36" s="49"/>
       <c r="V36" s="35" t="s">
@@ -17846,58 +17880,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="73" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="70" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="339" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="340" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="333" t="s">
+      <c r="B4" s="341" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="334"/>
-      <c r="D4" s="335"/>
-    </row>
-    <row r="5" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="C4" s="342"/>
+      <c r="D4" s="343"/>
+    </row>
+    <row r="5" spans="1:4" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="94" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="89" t="s">
         <v>260</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -17905,9 +17939,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="92" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="89" t="s">
         <v>259</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -17915,49 +17949,49 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="101" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="86" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="99" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="96" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="99"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="105"/>
-      <c r="B11" s="328" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="336" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="329"/>
-      <c r="D11" s="330"/>
+      <c r="C11" s="337"/>
+      <c r="D11" s="338"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="101" t="s">
         <v>289</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="91" t="s">
         <v>267</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -17965,27 +17999,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="105"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="89"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="86"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="105"/>
-      <c r="B14" s="328" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="336" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="329"/>
-      <c r="D14" s="330"/>
+      <c r="C14" s="337"/>
+      <c r="D14" s="338"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="91" t="s">
         <v>270</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -17993,13 +18027,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="101" t="s">
         <v>291</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="89" t="s">
         <v>278</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -18007,13 +18041,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="101" t="s">
         <v>292</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="89" t="s">
         <v>303</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -18021,13 +18055,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="101" t="s">
         <v>294</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="89" t="s">
         <v>281</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -18035,13 +18069,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="101" t="s">
         <v>295</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="89" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="32" t="s">
@@ -18049,13 +18083,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="101" t="s">
         <v>289</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="89" t="s">
         <v>284</v>
       </c>
       <c r="D20" s="32" t="s">
@@ -18063,21 +18097,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="86"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="328" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="336" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="329"/>
-      <c r="D22" s="330"/>
+      <c r="C22" s="337"/>
+      <c r="D22" s="338"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="101" t="s">
         <v>299</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -18091,7 +18125,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="101" t="s">
         <v>289</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -18105,7 +18139,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="31"/>
       <c r="C25" s="4"/>
       <c r="D25" s="32" t="s">
@@ -18113,94 +18147,94 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="31"/>
       <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="328" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="336" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="330"/>
+      <c r="C27" s="337"/>
+      <c r="D27" s="338"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="89"/>
+      <c r="D28" s="86"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="101" t="s">
         <v>291</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="95"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="32" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="101" t="s">
         <v>292</v>
       </c>
       <c r="B30" s="31"/>
-      <c r="C30" s="95"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="32" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="101" t="s">
         <v>295</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="89"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="86"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="101" t="s">
         <v>289</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="95"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="32" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="105"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="89"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="86"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="105"/>
-      <c r="B34" s="328" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="336" t="s">
         <v>310</v>
       </c>
-      <c r="C34" s="329"/>
-      <c r="D34" s="330"/>
+      <c r="C34" s="337"/>
+      <c r="D34" s="338"/>
     </row>
     <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="103" t="s">
         <v>288</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="98" t="s">
         <v>311</v>
       </c>
       <c r="D35" s="36" t="s">
@@ -18237,342 +18271,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="344" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="338"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="346"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="347" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="341"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="349"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="241" t="s">
         <v>565</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="243"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="240"/>
-      <c r="B4" s="238"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="239"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="240"/>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="239"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="240"/>
-      <c r="B6" s="238"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="239"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="240"/>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="239"/>
+      <c r="A7" s="237"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="240"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="240"/>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="239"/>
+      <c r="A9" s="237"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="240"/>
-      <c r="B10" s="238"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="239"/>
+      <c r="A10" s="237"/>
+      <c r="B10" s="235"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="236"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="240"/>
-      <c r="B11" s="238"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="239"/>
+      <c r="A11" s="237"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="237" t="s">
+      <c r="A12" s="234" t="s">
         <v>566</v>
       </c>
-      <c r="B12" s="238"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="239"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="236"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="240"/>
-      <c r="B13" s="238"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="239"/>
+      <c r="A13" s="237"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="236"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="240"/>
-      <c r="B14" s="238"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="239"/>
+      <c r="A14" s="237"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="240"/>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="239"/>
+      <c r="A15" s="237"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="236"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="240"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="239"/>
+      <c r="A16" s="237"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="236"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="240"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="239"/>
+      <c r="A17" s="237"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="236"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="240"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="239"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="236"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="240"/>
-      <c r="B19" s="238"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="239"/>
+      <c r="A19" s="237"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="236"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="240"/>
-      <c r="B20" s="238"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="239"/>
+      <c r="A20" s="237"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="236"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="240"/>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="239"/>
+      <c r="A21" s="237"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="236"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="234" t="s">
         <v>567</v>
       </c>
-      <c r="B22" s="238"/>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="236"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="240"/>
-      <c r="B23" s="238"/>
-      <c r="C23" s="238"/>
-      <c r="D23" s="239"/>
+      <c r="A23" s="237"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="236"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="240"/>
-      <c r="B24" s="238"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="239"/>
+      <c r="A24" s="237"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="236"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="240"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="238"/>
-      <c r="D25" s="239"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="235"/>
+      <c r="D25" s="236"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="240"/>
-      <c r="B26" s="238"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="239"/>
+      <c r="A26" s="237"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="236"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="240"/>
-      <c r="B27" s="238"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="239"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="240"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="239"/>
+      <c r="A28" s="237"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="236"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="240"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="239"/>
+      <c r="A29" s="237"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="236"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="240"/>
-      <c r="B30" s="238"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="239"/>
+      <c r="A30" s="237"/>
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="236"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="240"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="239"/>
+      <c r="A31" s="237"/>
+      <c r="B31" s="235"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="236"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="237" t="s">
+      <c r="A32" s="234" t="s">
         <v>568</v>
       </c>
-      <c r="B32" s="238"/>
-      <c r="C32" s="238"/>
-      <c r="D32" s="239"/>
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="236"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="240"/>
-      <c r="B33" s="238"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="239"/>
+      <c r="A33" s="237"/>
+      <c r="B33" s="235"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="236"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="240"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="238"/>
-      <c r="D34" s="239"/>
+      <c r="A34" s="237"/>
+      <c r="B34" s="235"/>
+      <c r="C34" s="235"/>
+      <c r="D34" s="236"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="240"/>
-      <c r="B35" s="238"/>
-      <c r="C35" s="238"/>
-      <c r="D35" s="239"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="235"/>
+      <c r="C35" s="235"/>
+      <c r="D35" s="236"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="240"/>
-      <c r="B36" s="238"/>
-      <c r="C36" s="238"/>
-      <c r="D36" s="239"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="235"/>
+      <c r="C36" s="235"/>
+      <c r="D36" s="236"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="240"/>
-      <c r="B37" s="238"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="239"/>
+      <c r="A37" s="237"/>
+      <c r="B37" s="235"/>
+      <c r="C37" s="235"/>
+      <c r="D37" s="236"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="240"/>
-      <c r="B38" s="238"/>
-      <c r="C38" s="238"/>
-      <c r="D38" s="239"/>
+      <c r="A38" s="237"/>
+      <c r="B38" s="235"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="236"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="240"/>
-      <c r="B39" s="238"/>
-      <c r="C39" s="238"/>
-      <c r="D39" s="239"/>
+      <c r="A39" s="237"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="236"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="240"/>
-      <c r="B40" s="238"/>
-      <c r="C40" s="238"/>
-      <c r="D40" s="239"/>
+      <c r="A40" s="237"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="235"/>
+      <c r="D40" s="236"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="240"/>
-      <c r="B41" s="238"/>
-      <c r="C41" s="238"/>
-      <c r="D41" s="239"/>
+      <c r="A41" s="237"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="236"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="237" t="s">
+      <c r="A42" s="234" t="s">
         <v>569</v>
       </c>
-      <c r="B42" s="238"/>
-      <c r="C42" s="238"/>
-      <c r="D42" s="239"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="236"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="240"/>
-      <c r="B43" s="238"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="239"/>
+      <c r="A43" s="237"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="236"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="240"/>
-      <c r="B44" s="238"/>
-      <c r="C44" s="238"/>
-      <c r="D44" s="239"/>
+      <c r="A44" s="237"/>
+      <c r="B44" s="235"/>
+      <c r="C44" s="235"/>
+      <c r="D44" s="236"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="240"/>
-      <c r="B45" s="238"/>
-      <c r="C45" s="238"/>
-      <c r="D45" s="239"/>
+      <c r="A45" s="237"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="235"/>
+      <c r="D45" s="236"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="240"/>
-      <c r="B46" s="238"/>
-      <c r="C46" s="238"/>
-      <c r="D46" s="239"/>
+      <c r="A46" s="237"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="236"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="240"/>
-      <c r="B47" s="238"/>
-      <c r="C47" s="238"/>
-      <c r="D47" s="239"/>
+      <c r="A47" s="237"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="236"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="240"/>
-      <c r="B48" s="238"/>
-      <c r="C48" s="238"/>
-      <c r="D48" s="239"/>
+      <c r="A48" s="237"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="236"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="240"/>
-      <c r="B49" s="238"/>
-      <c r="C49" s="238"/>
-      <c r="D49" s="239"/>
+      <c r="A49" s="237"/>
+      <c r="B49" s="235"/>
+      <c r="C49" s="235"/>
+      <c r="D49" s="236"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="240"/>
-      <c r="B50" s="238"/>
-      <c r="C50" s="238"/>
-      <c r="D50" s="239"/>
+      <c r="A50" s="237"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="235"/>
+      <c r="D50" s="236"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="240"/>
-      <c r="B51" s="238"/>
-      <c r="C51" s="238"/>
-      <c r="D51" s="239"/>
+      <c r="A51" s="237"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="235"/>
+      <c r="D51" s="236"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="240"/>
-      <c r="B52" s="238"/>
-      <c r="C52" s="238"/>
-      <c r="D52" s="239"/>
+      <c r="A52" s="237"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="236"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="240"/>
-      <c r="B53" s="238"/>
-      <c r="C53" s="238"/>
-      <c r="D53" s="239"/>
+      <c r="A53" s="237"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="235"/>
+      <c r="D53" s="236"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="241"/>
-      <c r="B54" s="242"/>
-      <c r="C54" s="242"/>
-      <c r="D54" s="243"/>
+      <c r="A54" s="238"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18594,1587 +18628,1580 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="108" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="108" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="171" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="108"/>
-    <col min="6" max="6" width="18.28515625" style="108" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="108" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="108"/>
+    <col min="1" max="1" width="33.28515625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="105" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="168" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="105"/>
+    <col min="6" max="6" width="18.28515625" style="105" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="105" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="288" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F3" s="171"/>
+      <c r="F3" s="168"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="348" t="s">
+      <c r="A4" s="352" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="348"/>
-      <c r="C4" s="348"/>
-      <c r="F4" s="171"/>
+      <c r="B4" s="352"/>
+      <c r="C4" s="352"/>
+      <c r="F4" s="168"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="356" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="353"/>
-      <c r="C5" s="222"/>
-      <c r="F5" s="171"/>
-      <c r="K5" s="171"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="219"/>
+      <c r="F5" s="168"/>
+      <c r="K5" s="168"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="220" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="221" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="219" t="s">
         <v>340</v>
       </c>
-      <c r="F6" s="171"/>
-      <c r="K6" s="171"/>
+      <c r="F6" s="168"/>
+      <c r="K6" s="168"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="222" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="221" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="219" t="s">
         <v>341</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="K7" s="171"/>
+      <c r="F7" s="168"/>
+      <c r="K7" s="168"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="225" t="s">
+      <c r="A8" s="222" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="221" t="s">
         <v>335</v>
       </c>
-      <c r="C8" s="222" t="s">
+      <c r="C8" s="219" t="s">
         <v>342</v>
       </c>
-      <c r="E8" s="226"/>
-      <c r="F8" s="171"/>
-      <c r="K8" s="171"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="168"/>
+      <c r="K8" s="168"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="224" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="127" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="222" t="s">
+      <c r="C9" s="219" t="s">
         <v>343</v>
       </c>
-      <c r="F9" s="171"/>
+      <c r="F9" s="168"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="228" t="s">
+      <c r="A10" s="225" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="226" t="s">
         <v>337</v>
       </c>
-      <c r="C10" s="222" t="s">
+      <c r="C10" s="219" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="171"/>
+      <c r="F10" s="168"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="221" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="224" t="s">
+      <c r="B11" s="221" t="s">
         <v>338</v>
       </c>
-      <c r="C11" s="227" t="s">
+      <c r="C11" s="224" t="s">
         <v>345</v>
       </c>
-      <c r="F11" s="171"/>
+      <c r="F11" s="168"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="225" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="226" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="219" t="s">
         <v>351</v>
       </c>
-      <c r="F12" s="171"/>
+      <c r="F12" s="168"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="224" t="s">
+      <c r="A13" s="221" t="s">
         <v>364</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="127" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="222" t="s">
+      <c r="C13" s="219" t="s">
         <v>366</v>
       </c>
-      <c r="F13" s="171"/>
+      <c r="F13" s="168"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="228"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="222"/>
-      <c r="F14" s="171"/>
+      <c r="A14" s="225"/>
+      <c r="B14" s="227"/>
+      <c r="C14" s="219"/>
+      <c r="F14" s="168"/>
     </row>
     <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="358" t="s">
         <v>388</v>
       </c>
-      <c r="B15" s="354"/>
-      <c r="C15" s="354"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="B15" s="358"/>
+      <c r="C15" s="358"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="D16" s="231"/>
-      <c r="F16" s="171"/>
+      <c r="D16" s="228"/>
+      <c r="F16" s="168"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="F17" s="171"/>
+      <c r="F17" s="168"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="F18" s="171"/>
+      <c r="F18" s="168"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="105" t="s">
         <v>349</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="105" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="171"/>
+      <c r="F19" s="168"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="105" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="105" t="s">
         <v>367</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="F20" s="171"/>
+      <c r="F20" s="168"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="105" t="s">
         <v>369</v>
       </c>
-      <c r="F21" s="171"/>
+      <c r="F21" s="168"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="171"/>
+      <c r="F22" s="168"/>
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="348" t="s">
+      <c r="A23" s="352" t="s">
         <v>390</v>
       </c>
-      <c r="B23" s="348"/>
-      <c r="C23" s="348"/>
-      <c r="F23" s="171"/>
+      <c r="B23" s="352"/>
+      <c r="C23" s="352"/>
+      <c r="F23" s="168"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="F24" s="172"/>
-      <c r="G24" s="171"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="168"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="G25" s="171"/>
+      <c r="G25" s="168"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="105" t="s">
         <v>377</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="171"/>
+      <c r="G26" s="168"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="171"/>
+      <c r="G27" s="168"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="G28" s="171"/>
+      <c r="G28" s="168"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="G29" s="171"/>
+      <c r="G29" s="168"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="105" t="s">
         <v>520</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="G30" s="171"/>
+      <c r="G30" s="168"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="G31" s="171"/>
+      <c r="G31" s="168"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="171"/>
+      <c r="G32" s="168"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="G33" s="171"/>
+      <c r="G33" s="168"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="G34" s="171"/>
+      <c r="G34" s="168"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="105" t="s">
         <v>380</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="F35" s="171"/>
+      <c r="F35" s="168"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="171"/>
+      <c r="F36" s="168"/>
     </row>
     <row r="37" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="349" t="s">
+      <c r="A37" s="353" t="s">
         <v>382</v>
       </c>
-      <c r="B37" s="350"/>
-      <c r="C37" s="351"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="354"/>
+      <c r="C37" s="355"/>
+      <c r="F37" s="168"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="C38" s="232"/>
-      <c r="F38" s="171"/>
+      <c r="C38" s="229"/>
+      <c r="F38" s="168"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="C39" s="232"/>
-      <c r="F39" s="171"/>
+      <c r="C39" s="229"/>
+      <c r="F39" s="168"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="C40" s="232"/>
-      <c r="F40" s="171"/>
+      <c r="C40" s="229"/>
+      <c r="F40" s="168"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="105" t="s">
         <v>385</v>
       </c>
-      <c r="B41" s="108" t="s">
+      <c r="B41" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="232"/>
-      <c r="F41" s="171"/>
+      <c r="C41" s="229"/>
+      <c r="F41" s="168"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="C42" s="232"/>
-      <c r="F42" s="171"/>
+      <c r="C42" s="229"/>
+      <c r="F42" s="168"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="105" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="105" t="s">
         <v>319</v>
       </c>
-      <c r="C43" s="232"/>
-      <c r="F43" s="171"/>
+      <c r="C43" s="229"/>
+      <c r="F43" s="168"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="171"/>
+      <c r="F44" s="168"/>
     </row>
     <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="342" t="s">
+      <c r="A45" s="350" t="s">
         <v>361</v>
       </c>
-      <c r="B45" s="344"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="233"/>
-      <c r="F45" s="171"/>
+      <c r="B45" s="351"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="230"/>
+      <c r="F45" s="168"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="C46" s="172"/>
-      <c r="F46" s="171"/>
+      <c r="C46" s="169"/>
+      <c r="F46" s="168"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="105" t="s">
         <v>409</v>
       </c>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="C47" s="172"/>
-      <c r="F47" s="171"/>
+      <c r="C47" s="169"/>
+      <c r="F47" s="168"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="105" t="s">
         <v>411</v>
       </c>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="F48" s="171"/>
+      <c r="F48" s="168"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="105" t="s">
         <v>413</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="F49" s="171"/>
+      <c r="F49" s="168"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="108" t="s">
+      <c r="A50" s="105" t="s">
         <v>417</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="F50" s="171"/>
+      <c r="F50" s="168"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="105" t="s">
         <v>415</v>
       </c>
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="F51" s="171"/>
+      <c r="F51" s="168"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="105" t="s">
         <v>416</v>
       </c>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="F52" s="171"/>
+      <c r="F52" s="168"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="105" t="s">
         <v>418</v>
       </c>
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="F53" s="171"/>
+      <c r="F53" s="168"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="B54" s="108" t="s">
+      <c r="B54" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="F54" s="171"/>
+      <c r="F54" s="168"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="108" t="s">
+      <c r="A55" s="105" t="s">
         <v>421</v>
       </c>
-      <c r="B55" s="108" t="s">
+      <c r="B55" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="F55" s="171"/>
+      <c r="F55" s="168"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="108" t="s">
+      <c r="A56" s="105" t="s">
         <v>422</v>
       </c>
-      <c r="B56" s="108" t="s">
+      <c r="B56" s="105" t="s">
         <v>423</v>
       </c>
-      <c r="F56" s="171"/>
+      <c r="F56" s="168"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="105" t="s">
         <v>424</v>
       </c>
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="105" t="s">
         <v>425</v>
       </c>
-      <c r="F57" s="171"/>
+      <c r="F57" s="168"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="105" t="s">
         <v>426</v>
       </c>
-      <c r="B58" s="108" t="s">
+      <c r="B58" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="F58" s="171"/>
+      <c r="F58" s="168"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="F59" s="171"/>
+      <c r="F59" s="168"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="F60" s="171"/>
+      <c r="F60" s="168"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="105" t="s">
         <v>430</v>
       </c>
-      <c r="B61" s="108" t="s">
+      <c r="B61" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="F61" s="171"/>
+      <c r="F61" s="168"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="108" t="s">
+      <c r="A62" s="105" t="s">
         <v>432</v>
       </c>
-      <c r="B62" s="108" t="s">
+      <c r="B62" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="F62" s="171"/>
+      <c r="F62" s="168"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="105" t="s">
         <v>433</v>
       </c>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="F63" s="171"/>
+      <c r="F63" s="168"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="108" t="s">
+      <c r="A64" s="105" t="s">
         <v>434</v>
       </c>
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="F64" s="171"/>
+      <c r="F64" s="168"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="105" t="s">
         <v>435</v>
       </c>
-      <c r="B65" s="108" t="s">
+      <c r="B65" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="F65" s="171"/>
+      <c r="F65" s="168"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="108" t="s">
+      <c r="A66" s="105" t="s">
         <v>436</v>
       </c>
-      <c r="B66" s="108" t="s">
+      <c r="B66" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="F66" s="171"/>
+      <c r="F66" s="168"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="105" t="s">
         <v>437</v>
       </c>
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="F67" s="171"/>
+      <c r="F67" s="168"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="B68" s="108" t="s">
+      <c r="B68" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="F68" s="171"/>
+      <c r="F68" s="168"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="105" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="108" t="s">
+      <c r="B69" s="105" t="s">
         <v>442</v>
       </c>
-      <c r="F69" s="171"/>
+      <c r="F69" s="168"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="105" t="s">
         <v>443</v>
       </c>
-      <c r="B70" s="108" t="s">
+      <c r="B70" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="F70" s="171"/>
+      <c r="F70" s="168"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="105" t="s">
         <v>444</v>
       </c>
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="F71" s="171"/>
+      <c r="F71" s="168"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="F72" s="171"/>
+      <c r="F72" s="168"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="105" t="s">
         <v>446</v>
       </c>
-      <c r="B73" s="108" t="s">
+      <c r="B73" s="105" t="s">
         <v>447</v>
       </c>
-      <c r="F73" s="171"/>
+      <c r="F73" s="168"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="108" t="s">
+      <c r="A74" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="B74" s="108" t="s">
+      <c r="B74" s="105" t="s">
         <v>447</v>
       </c>
-      <c r="F74" s="171"/>
+      <c r="F74" s="168"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="105" t="s">
         <v>449</v>
       </c>
-      <c r="B75" s="108" t="s">
+      <c r="B75" s="105" t="s">
         <v>447</v>
       </c>
-      <c r="F75" s="171"/>
+      <c r="F75" s="168"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="108" t="s">
+      <c r="A76" s="105" t="s">
         <v>326</v>
       </c>
-      <c r="B76" s="108" t="s">
+      <c r="B76" s="105" t="s">
         <v>450</v>
       </c>
-      <c r="F76" s="171"/>
+      <c r="F76" s="168"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="108" t="s">
+      <c r="A77" s="105" t="s">
         <v>451</v>
       </c>
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="105" t="s">
         <v>452</v>
       </c>
-      <c r="F77" s="171"/>
+      <c r="F77" s="168"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="105" t="s">
         <v>453</v>
       </c>
-      <c r="B78" s="108" t="s">
+      <c r="B78" s="105" t="s">
         <v>454</v>
       </c>
-      <c r="F78" s="171"/>
+      <c r="F78" s="168"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F79" s="171"/>
+      <c r="F79" s="168"/>
     </row>
     <row r="80" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F80" s="171"/>
+      <c r="F80" s="168"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F81" s="171"/>
+      <c r="F81" s="168"/>
     </row>
     <row r="82" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="342" t="s">
+      <c r="A82" s="350" t="s">
         <v>455</v>
       </c>
-      <c r="B82" s="344"/>
-      <c r="C82" s="236"/>
-      <c r="F82" s="171"/>
+      <c r="B82" s="351"/>
+      <c r="C82" s="233"/>
+      <c r="F82" s="168"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="B83" s="108" t="s">
+      <c r="B83" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="F83" s="171"/>
+      <c r="F83" s="168"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="108" t="s">
+      <c r="A84" s="105" t="s">
         <v>464</v>
       </c>
-      <c r="B84" s="108" t="s">
+      <c r="B84" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="D84" s="108"/>
+      <c r="D84" s="105"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="108" t="s">
+      <c r="A85" s="105" t="s">
         <v>459</v>
       </c>
-      <c r="B85" s="108" t="s">
+      <c r="B85" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F85" s="171"/>
+      <c r="F85" s="168"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="108" t="s">
+      <c r="A86" s="105" t="s">
         <v>456</v>
       </c>
-      <c r="B86" s="108" t="s">
+      <c r="B86" s="105" t="s">
         <v>457</v>
       </c>
-      <c r="F86" s="171"/>
+      <c r="F86" s="168"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="108" t="s">
+      <c r="A87" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="B87" s="108" t="s">
+      <c r="B87" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="F87" s="171"/>
+      <c r="F87" s="168"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="B88" s="108" t="s">
+      <c r="B88" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F88" s="171"/>
+      <c r="F88" s="168"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="108" t="s">
+      <c r="A89" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="B89" s="108" t="s">
+      <c r="B89" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F89" s="171"/>
+      <c r="F89" s="168"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="105" t="s">
         <v>465</v>
       </c>
-      <c r="B90" s="108" t="s">
+      <c r="B90" s="105" t="s">
         <v>466</v>
       </c>
-      <c r="F90" s="171"/>
+      <c r="F90" s="168"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="B91" s="108" t="s">
+      <c r="B91" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="F91" s="171"/>
+      <c r="F91" s="168"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="108" t="s">
+      <c r="A92" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="F92" s="171"/>
+      <c r="F92" s="168"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="108" t="s">
+      <c r="A93" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="B93" s="108" t="s">
+      <c r="B93" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="F93" s="171"/>
+      <c r="F93" s="168"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="108" t="s">
+      <c r="A94" s="105" t="s">
         <v>471</v>
       </c>
-      <c r="B94" s="108" t="s">
+      <c r="B94" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="F94" s="171"/>
+      <c r="F94" s="168"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="108" t="s">
+      <c r="A95" s="105" t="s">
         <v>458</v>
       </c>
-      <c r="B95" s="108" t="s">
+      <c r="B95" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="F95" s="171"/>
+      <c r="F95" s="168"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="108" t="s">
+      <c r="A96" s="105" t="s">
         <v>472</v>
       </c>
-      <c r="B96" s="108" t="s">
+      <c r="B96" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F96" s="171"/>
+      <c r="F96" s="168"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F97" s="171"/>
+      <c r="F97" s="168"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="171"/>
+      <c r="F98" s="168"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="171"/>
+      <c r="F99" s="168"/>
     </row>
     <row r="100" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="342" t="s">
+      <c r="A100" s="350" t="s">
         <v>473</v>
       </c>
-      <c r="B100" s="344"/>
-      <c r="C100" s="236"/>
-      <c r="F100" s="171"/>
+      <c r="B100" s="351"/>
+      <c r="C100" s="233"/>
+      <c r="F100" s="168"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="108" t="s">
+      <c r="A101" s="105" t="s">
         <v>474</v>
       </c>
-      <c r="B101" s="108" t="s">
+      <c r="B101" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F101" s="171"/>
+      <c r="F101" s="168"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="105" t="s">
         <v>476</v>
       </c>
-      <c r="F102" s="171"/>
+      <c r="F102" s="168"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="108" t="s">
+      <c r="A103" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="105" t="s">
         <v>478</v>
       </c>
-      <c r="F103" s="171"/>
+      <c r="F103" s="168"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="108" t="s">
+      <c r="A104" s="105" t="s">
         <v>479</v>
       </c>
-      <c r="B104" s="108" t="s">
+      <c r="B104" s="105" t="s">
         <v>480</v>
       </c>
-      <c r="F104" s="171"/>
+      <c r="F104" s="168"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="108" t="s">
+      <c r="A105" s="105" t="s">
         <v>481</v>
       </c>
-      <c r="B105" s="108" t="s">
+      <c r="B105" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F105" s="171"/>
+      <c r="F105" s="168"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="108" t="s">
+      <c r="A106" s="105" t="s">
         <v>482</v>
       </c>
-      <c r="B106" s="108" t="s">
+      <c r="B106" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="F106" s="171"/>
+      <c r="F106" s="168"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="108" t="s">
+      <c r="A107" s="105" t="s">
         <v>484</v>
       </c>
-      <c r="B107" s="108" t="s">
+      <c r="B107" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="F107" s="171"/>
+      <c r="F107" s="168"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="B108" s="108" t="s">
+      <c r="B108" s="105" t="s">
         <v>486</v>
       </c>
-      <c r="F108" s="171"/>
+      <c r="F108" s="168"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="108" t="s">
+      <c r="A109" s="105" t="s">
         <v>487</v>
       </c>
-      <c r="B109" s="108" t="s">
+      <c r="B109" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="F109" s="171"/>
+      <c r="F109" s="168"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="108" t="s">
+      <c r="A110" s="105" t="s">
         <v>488</v>
       </c>
-      <c r="B110" s="108" t="s">
+      <c r="B110" s="105" t="s">
         <v>489</v>
       </c>
-      <c r="F110" s="171"/>
+      <c r="F110" s="168"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="108" t="s">
+      <c r="A111" s="105" t="s">
         <v>490</v>
       </c>
-      <c r="B111" s="108" t="s">
+      <c r="B111" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="F111" s="171"/>
+      <c r="F111" s="168"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F112" s="171"/>
+      <c r="F112" s="168"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="171"/>
+      <c r="F113" s="168"/>
     </row>
     <row r="114" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="342" t="s">
+      <c r="A114" s="350" t="s">
         <v>495</v>
       </c>
-      <c r="B114" s="344"/>
-      <c r="C114" s="236"/>
-      <c r="F114" s="171"/>
+      <c r="B114" s="351"/>
+      <c r="C114" s="233"/>
+      <c r="F114" s="168"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="108" t="s">
+      <c r="A115" s="105" t="s">
         <v>491</v>
       </c>
-      <c r="B115" s="108" t="s">
+      <c r="B115" s="105" t="s">
         <v>494</v>
       </c>
-      <c r="F115" s="171"/>
+      <c r="F115" s="168"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="108" t="s">
+      <c r="A116" s="105" t="s">
         <v>492</v>
       </c>
-      <c r="B116" s="108" t="s">
+      <c r="B116" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="F116" s="171"/>
+      <c r="F116" s="168"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="108" t="s">
+      <c r="A117" s="105" t="s">
         <v>496</v>
       </c>
-      <c r="B117" s="108" t="s">
+      <c r="B117" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="F117" s="171"/>
+      <c r="F117" s="168"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="108" t="s">
+      <c r="A118" s="105" t="s">
         <v>497</v>
       </c>
-      <c r="B118" s="108" t="s">
+      <c r="B118" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="F118" s="171"/>
+      <c r="F118" s="168"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F119" s="171"/>
+      <c r="F119" s="168"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="171"/>
+      <c r="F120" s="168"/>
     </row>
     <row r="121" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="342" t="s">
+      <c r="A121" s="350" t="s">
         <v>49</v>
       </c>
-      <c r="B121" s="344"/>
-      <c r="C121" s="236"/>
-      <c r="F121" s="171"/>
+      <c r="B121" s="351"/>
+      <c r="C121" s="233"/>
+      <c r="F121" s="168"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="108" t="s">
+      <c r="A122" s="105" t="s">
         <v>498</v>
       </c>
-      <c r="B122" s="108" t="s">
+      <c r="B122" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F122" s="171"/>
+      <c r="F122" s="168"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="108" t="s">
+      <c r="A123" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="B123" s="108" t="s">
+      <c r="B123" s="105" t="s">
         <v>501</v>
       </c>
-      <c r="F123" s="171"/>
+      <c r="F123" s="168"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="108" t="s">
+      <c r="A124" s="105" t="s">
         <v>504</v>
       </c>
-      <c r="B124" s="108" t="s">
+      <c r="B124" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F124" s="171"/>
+      <c r="F124" s="168"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="105" t="s">
         <v>502</v>
       </c>
-      <c r="B125" s="108" t="s">
+      <c r="B125" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="F125" s="171"/>
+      <c r="F125" s="168"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="108" t="s">
+      <c r="A126" s="105" t="s">
         <v>503</v>
       </c>
-      <c r="B126" s="108" t="s">
+      <c r="B126" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="F126" s="171"/>
+      <c r="F126" s="168"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="108" t="s">
+      <c r="A127" s="105" t="s">
         <v>500</v>
       </c>
-      <c r="B127" s="108" t="s">
+      <c r="B127" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="F127" s="171"/>
+      <c r="F127" s="168"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="108" t="s">
+      <c r="A128" s="105" t="s">
         <v>498</v>
       </c>
-      <c r="B128" s="108" t="s">
+      <c r="B128" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F128" s="171"/>
+      <c r="F128" s="168"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="108" t="s">
+      <c r="A129" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="108" t="s">
+      <c r="B129" s="105" t="s">
         <v>319</v>
       </c>
-      <c r="F129" s="171"/>
+      <c r="F129" s="168"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="108" t="s">
+      <c r="A130" s="105" t="s">
         <v>506</v>
       </c>
-      <c r="B130" s="108" t="s">
+      <c r="B130" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="F130" s="171"/>
+      <c r="F130" s="168"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="105" t="s">
         <v>507</v>
       </c>
-      <c r="B131" s="108" t="s">
+      <c r="B131" s="105" t="s">
         <v>508</v>
       </c>
-      <c r="F131" s="171"/>
+      <c r="F131" s="168"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="108" t="s">
+      <c r="A132" s="105" t="s">
         <v>509</v>
       </c>
-      <c r="B132" s="108" t="s">
+      <c r="B132" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="F132" s="171"/>
+      <c r="F132" s="168"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="108" t="s">
+      <c r="A133" s="105" t="s">
         <v>510</v>
       </c>
-      <c r="B133" s="108" t="s">
+      <c r="B133" s="105" t="s">
         <v>511</v>
       </c>
-      <c r="F133" s="171"/>
+      <c r="F133" s="168"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="108" t="s">
+      <c r="A134" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="B134" s="108" t="s">
+      <c r="B134" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="F134" s="171"/>
+      <c r="F134" s="168"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="108" t="s">
+      <c r="A135" s="105" t="s">
         <v>514</v>
       </c>
-      <c r="B135" s="108" t="s">
+      <c r="B135" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="F135" s="171"/>
+      <c r="F135" s="168"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="108" t="s">
+      <c r="A136" s="105" t="s">
         <v>487</v>
       </c>
-      <c r="B136" s="108" t="s">
+      <c r="B136" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="F136" s="171"/>
+      <c r="F136" s="168"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F137" s="171"/>
+      <c r="F137" s="168"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="347" t="s">
+      <c r="A138" s="362" t="s">
         <v>560</v>
       </c>
-      <c r="B138" s="347"/>
-      <c r="F138" s="171"/>
+      <c r="B138" s="362"/>
+      <c r="F138" s="168"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="108" t="s">
+      <c r="A139" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="F139" s="171"/>
+      <c r="F139" s="168"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="108" t="s">
+      <c r="A140" s="105" t="s">
         <v>558</v>
       </c>
-      <c r="F140" s="171"/>
+      <c r="F140" s="168"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="108" t="s">
+      <c r="A141" s="105" t="s">
         <v>561</v>
       </c>
-      <c r="F141" s="171"/>
+      <c r="F141" s="168"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="105" t="s">
         <v>563</v>
       </c>
-      <c r="F142" s="171"/>
+      <c r="F142" s="168"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="108" t="s">
+      <c r="A143" s="105" t="s">
         <v>564</v>
       </c>
-      <c r="F143" s="171"/>
+      <c r="F143" s="168"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F144" s="171"/>
+      <c r="F144" s="168"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F145" s="171"/>
+      <c r="F145" s="168"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F146" s="171"/>
+      <c r="F146" s="168"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F147" s="171"/>
+      <c r="F147" s="168"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="342" t="s">
+      <c r="A148" s="350" t="s">
         <v>544</v>
       </c>
-      <c r="B148" s="343"/>
-      <c r="C148" s="344"/>
-      <c r="F148" s="171"/>
+      <c r="B148" s="359"/>
+      <c r="C148" s="351"/>
+      <c r="F148" s="168"/>
     </row>
     <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="345" t="s">
+      <c r="A149" s="360" t="s">
         <v>545</v>
       </c>
-      <c r="B149" s="345"/>
-      <c r="C149" s="345"/>
-      <c r="F149" s="171"/>
+      <c r="B149" s="360"/>
+      <c r="C149" s="360"/>
+      <c r="F149" s="168"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="221" t="s">
+      <c r="A150" s="218" t="s">
         <v>550</v>
       </c>
-      <c r="B150" s="234"/>
-      <c r="C150" s="234"/>
-      <c r="F150" s="171"/>
+      <c r="B150" s="231"/>
+      <c r="C150" s="231"/>
+      <c r="F150" s="168"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="221" t="s">
+      <c r="A151" s="218" t="s">
         <v>551</v>
       </c>
-      <c r="B151" s="234"/>
-      <c r="C151" s="234"/>
-      <c r="F151" s="171"/>
+      <c r="B151" s="231"/>
+      <c r="C151" s="231"/>
+      <c r="F151" s="168"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="221" t="s">
+      <c r="A152" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="B152" s="234"/>
-      <c r="C152" s="234"/>
-      <c r="F152" s="171"/>
+      <c r="B152" s="231"/>
+      <c r="C152" s="231"/>
+      <c r="F152" s="168"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="221" t="s">
+      <c r="A153" s="218" t="s">
         <v>553</v>
       </c>
-      <c r="B153" s="234"/>
-      <c r="C153" s="234"/>
-      <c r="F153" s="171"/>
+      <c r="B153" s="231"/>
+      <c r="C153" s="231"/>
+      <c r="F153" s="168"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="221" t="s">
+      <c r="A154" s="218" t="s">
         <v>554</v>
       </c>
-      <c r="B154" s="234"/>
-      <c r="C154" s="234"/>
-      <c r="F154" s="171"/>
+      <c r="B154" s="231"/>
+      <c r="C154" s="231"/>
+      <c r="F154" s="168"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="221" t="s">
+      <c r="A155" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="B155" s="234"/>
-      <c r="C155" s="234"/>
-      <c r="F155" s="171"/>
+      <c r="B155" s="231"/>
+      <c r="C155" s="231"/>
+      <c r="F155" s="168"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="221" t="s">
+      <c r="A156" s="218" t="s">
         <v>547</v>
       </c>
-      <c r="B156" s="234"/>
-      <c r="C156" s="234"/>
-      <c r="F156" s="171"/>
+      <c r="B156" s="231"/>
+      <c r="C156" s="231"/>
+      <c r="F156" s="168"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="221" t="s">
+      <c r="A157" s="218" t="s">
         <v>548</v>
       </c>
-      <c r="B157" s="234"/>
-      <c r="C157" s="234"/>
-      <c r="F157" s="171"/>
+      <c r="B157" s="231"/>
+      <c r="C157" s="231"/>
+      <c r="F157" s="168"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="221" t="s">
+      <c r="A158" s="218" t="s">
         <v>549</v>
       </c>
-      <c r="B158" s="234"/>
-      <c r="C158" s="234"/>
-      <c r="F158" s="171"/>
+      <c r="B158" s="231"/>
+      <c r="C158" s="231"/>
+      <c r="F158" s="168"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="234"/>
-      <c r="B159" s="234"/>
-      <c r="C159" s="234"/>
-      <c r="F159" s="171"/>
+      <c r="A159" s="231"/>
+      <c r="B159" s="231"/>
+      <c r="C159" s="231"/>
+      <c r="F159" s="168"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="346" t="s">
+      <c r="A160" s="361" t="s">
         <v>559</v>
       </c>
-      <c r="B160" s="346"/>
-      <c r="C160" s="346"/>
-      <c r="F160" s="171"/>
+      <c r="B160" s="361"/>
+      <c r="C160" s="361"/>
+      <c r="F160" s="168"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="221" t="s">
+      <c r="A161" s="218" t="s">
         <v>555</v>
       </c>
-      <c r="B161" s="234"/>
-      <c r="C161" s="234"/>
-      <c r="F161" s="171"/>
+      <c r="B161" s="231"/>
+      <c r="C161" s="231"/>
+      <c r="F161" s="168"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="221" t="s">
+      <c r="A162" s="218" t="s">
         <v>556</v>
       </c>
-      <c r="B162" s="234"/>
-      <c r="C162" s="234"/>
-      <c r="F162" s="171"/>
+      <c r="B162" s="231"/>
+      <c r="C162" s="231"/>
+      <c r="F162" s="168"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="235" t="s">
+      <c r="A163" s="232" t="s">
         <v>557</v>
       </c>
-      <c r="B163" s="234"/>
-      <c r="C163" s="234"/>
-      <c r="F163" s="171"/>
+      <c r="B163" s="231"/>
+      <c r="C163" s="231"/>
+      <c r="F163" s="168"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="234"/>
-      <c r="B164" s="234"/>
-      <c r="C164" s="234"/>
-      <c r="F164" s="171"/>
+      <c r="A164" s="231"/>
+      <c r="B164" s="231"/>
+      <c r="C164" s="231"/>
+      <c r="F164" s="168"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="234"/>
-      <c r="B165" s="234"/>
-      <c r="C165" s="234"/>
-      <c r="F165" s="171"/>
+      <c r="A165" s="231"/>
+      <c r="B165" s="231"/>
+      <c r="C165" s="231"/>
+      <c r="F165" s="168"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F166" s="171"/>
+      <c r="F166" s="168"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="342" t="s">
+      <c r="A167" s="350" t="s">
         <v>515</v>
       </c>
-      <c r="B167" s="343"/>
-      <c r="C167" s="344"/>
-      <c r="F167" s="171"/>
+      <c r="B167" s="359"/>
+      <c r="C167" s="351"/>
+      <c r="F167" s="168"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="108" t="s">
+      <c r="A168" s="105" t="s">
         <v>517</v>
       </c>
-      <c r="B168" s="108" t="s">
+      <c r="B168" s="105" t="s">
         <v>519</v>
       </c>
-      <c r="C168" s="108" t="s">
+      <c r="C168" s="105" t="s">
         <v>518</v>
       </c>
-      <c r="F168" s="171"/>
+      <c r="F168" s="168"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="108" t="s">
+      <c r="A169" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="B169" s="108" t="s">
+      <c r="B169" s="105" t="s">
         <v>523</v>
       </c>
-      <c r="C169" s="108" t="s">
+      <c r="C169" s="105" t="s">
         <v>524</v>
       </c>
-      <c r="F169" s="171"/>
+      <c r="F169" s="168"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="108" t="s">
+      <c r="A170" s="105" t="s">
         <v>525</v>
       </c>
-      <c r="B170" s="108" t="s">
+      <c r="B170" s="105" t="s">
         <v>526</v>
       </c>
-      <c r="C170" s="108" t="s">
+      <c r="C170" s="105" t="s">
         <v>527</v>
       </c>
-      <c r="F170" s="171"/>
+      <c r="F170" s="168"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="108" t="s">
+      <c r="A171" s="105" t="s">
         <v>528</v>
       </c>
-      <c r="B171" s="108" t="s">
+      <c r="B171" s="105" t="s">
         <v>529</v>
       </c>
-      <c r="C171" s="108" t="s">
+      <c r="C171" s="105" t="s">
         <v>530</v>
       </c>
-      <c r="F171" s="171"/>
+      <c r="F171" s="168"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="108" t="s">
+      <c r="A172" s="105" t="s">
         <v>531</v>
       </c>
-      <c r="B172" s="108" t="s">
+      <c r="B172" s="105" t="s">
         <v>522</v>
       </c>
-      <c r="C172" s="108" t="s">
+      <c r="C172" s="105" t="s">
         <v>521</v>
       </c>
-      <c r="F172" s="171"/>
+      <c r="F172" s="168"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="108" t="s">
+      <c r="A173" s="105" t="s">
         <v>532</v>
       </c>
-      <c r="B173" s="108" t="s">
+      <c r="B173" s="105" t="s">
         <v>536</v>
       </c>
-      <c r="C173" s="108" t="s">
+      <c r="C173" s="105" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="171"/>
+      <c r="F173" s="168"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="108" t="s">
+      <c r="A174" s="105" t="s">
         <v>534</v>
       </c>
-      <c r="B174" s="108" t="s">
+      <c r="B174" s="105" t="s">
         <v>535</v>
       </c>
-      <c r="C174" s="108" t="s">
+      <c r="C174" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="F174" s="171"/>
+      <c r="F174" s="168"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="108" t="s">
+      <c r="A175" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="B175" s="108" t="s">
+      <c r="B175" s="105" t="s">
         <v>540</v>
       </c>
-      <c r="C175" s="108" t="s">
+      <c r="C175" s="105" t="s">
         <v>539</v>
       </c>
-      <c r="F175" s="171"/>
+      <c r="F175" s="168"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="108" t="s">
+      <c r="A176" s="105" t="s">
         <v>541</v>
       </c>
-      <c r="B176" s="108" t="s">
+      <c r="B176" s="105" t="s">
         <v>542</v>
       </c>
-      <c r="C176" s="108" t="s">
+      <c r="C176" s="105" t="s">
         <v>543</v>
       </c>
-      <c r="F176" s="171"/>
+      <c r="F176" s="168"/>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F177" s="171"/>
+      <c r="F177" s="168"/>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F178" s="171"/>
+      <c r="F178" s="168"/>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F179" s="171"/>
+      <c r="F179" s="168"/>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F180" s="171"/>
+      <c r="F180" s="168"/>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F181" s="171"/>
+      <c r="F181" s="168"/>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F182" s="171"/>
+      <c r="F182" s="168"/>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F183" s="171"/>
+      <c r="F183" s="168"/>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F184" s="171"/>
+      <c r="F184" s="168"/>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F185" s="171"/>
+      <c r="F185" s="168"/>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F186" s="171"/>
+      <c r="F186" s="168"/>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F187" s="171"/>
+      <c r="F187" s="168"/>
     </row>
     <row r="188" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F188" s="171"/>
+      <c r="F188" s="168"/>
     </row>
     <row r="189" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F189" s="171"/>
+      <c r="F189" s="168"/>
     </row>
     <row r="190" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F190" s="171"/>
+      <c r="F190" s="168"/>
     </row>
     <row r="191" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F191" s="171"/>
+      <c r="F191" s="168"/>
     </row>
     <row r="192" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F192" s="171"/>
+      <c r="F192" s="168"/>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F193" s="171"/>
+      <c r="F193" s="168"/>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F194" s="171"/>
+      <c r="F194" s="168"/>
     </row>
     <row r="195" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F195" s="171"/>
+      <c r="F195" s="168"/>
     </row>
     <row r="196" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F196" s="171"/>
+      <c r="F196" s="168"/>
     </row>
     <row r="197" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F197" s="171"/>
+      <c r="F197" s="168"/>
     </row>
     <row r="198" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F198" s="171"/>
+      <c r="F198" s="168"/>
     </row>
     <row r="199" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F199" s="171"/>
+      <c r="F199" s="168"/>
     </row>
     <row r="200" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F200" s="171"/>
+      <c r="F200" s="168"/>
     </row>
     <row r="201" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F201" s="171"/>
+      <c r="F201" s="168"/>
     </row>
     <row r="202" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F202" s="171"/>
+      <c r="F202" s="168"/>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F203" s="171"/>
+      <c r="F203" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A167:C167"/>
     <mergeCell ref="A148:C148"/>
     <mergeCell ref="A149:C149"/>
@@ -20184,6 +20211,13 @@
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
